--- a/data/trans_bre/P16B07-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B07-Estudios-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B07-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B07-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,63%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,57%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,9%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,44; 6,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,3; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,56; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,47; 7,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,3; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,56; 0,0</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,22%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,76%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,35; 22,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,03; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,22; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,35; 28,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,03; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,22; 0,0</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,76%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,78%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,17; 5,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,98; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,36; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,22; 6,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,98; 0,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,36; 0,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B07-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B07-Estudios-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 6,97</t>
+          <t>-4,41; 7,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 0,0</t>
+          <t>-2,86; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 0,0</t>
+          <t>-4,51; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 7,68</t>
+          <t>-4,44; 7,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 0,0</t>
+          <t>-2,86; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 0,0</t>
+          <t>-4,51; 0,0</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 22,11</t>
+          <t>-4,31; 25,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 0,0</t>
+          <t>-6,64; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 0,0</t>
+          <t>-3,97; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 28,76</t>
+          <t>-4,31; 34,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 0,0</t>
+          <t>-6,64; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 0,0</t>
+          <t>-3,97; 0,0</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 5,86</t>
+          <t>-3,17; 5,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 0,0</t>
+          <t>-2,69; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 0,0</t>
+          <t>-2,38; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 6,37</t>
+          <t>-3,2; 6,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 0,0</t>
+          <t>-2,69; 0,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 0,0</t>
+          <t>-2,38; 0,0</t>
         </is>
       </c>
     </row>
